--- a/氣象性能評估工具V2/data/obs/2016-06-13_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-13_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="199">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>23.2</t>
+  </si>
+  <si>
     <t>2016-06-13-00</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>29.6</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>27.3</t>
   </si>
   <si>
+    <t>22.7</t>
+  </si>
+  <si>
     <t>2016-06-13-01</t>
   </si>
   <si>
-    <t>22.7</t>
-  </si>
-  <si>
     <t>28.8</t>
   </si>
   <si>
@@ -205,12 +205,12 @@
     <t>27.5</t>
   </si>
   <si>
+    <t>20.2</t>
+  </si>
+  <si>
     <t>2016-06-13-02</t>
   </si>
   <si>
-    <t>20.2</t>
-  </si>
-  <si>
     <t>24.5</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>26.8</t>
   </si>
   <si>
+    <t>20.5</t>
+  </si>
+  <si>
     <t>2016-06-13-03</t>
   </si>
   <si>
-    <t>20.5</t>
-  </si>
-  <si>
     <t>24.1</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>27.7</t>
   </si>
   <si>
+    <t>20.4</t>
+  </si>
+  <si>
     <t>2016-06-13-04</t>
   </si>
   <si>
-    <t>20.4</t>
-  </si>
-  <si>
     <t>23.9</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>28.2</t>
   </si>
   <si>
+    <t>20.8</t>
+  </si>
+  <si>
     <t>2016-06-13-05</t>
   </si>
   <si>
-    <t>20.8</t>
-  </si>
-  <si>
     <t>24.4</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>29.0</t>
   </si>
   <si>
+    <t>21.1</t>
+  </si>
+  <si>
     <t>2016-06-13-06</t>
   </si>
   <si>
-    <t>21.1</t>
-  </si>
-  <si>
     <t>19.8</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>28.3</t>
   </si>
   <si>
+    <t>21.4</t>
+  </si>
+  <si>
     <t>2016-06-13-09</t>
   </si>
   <si>
-    <t>21.4</t>
-  </si>
-  <si>
     <t>22.6</t>
   </si>
   <si>
@@ -403,12 +403,12 @@
     <t>31.0</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-13-10</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>20.0</t>
   </si>
   <si>
@@ -550,12 +550,12 @@
     <t>5.5</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-13-18</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>30.9</t>
   </si>
   <si>
@@ -577,18 +577,18 @@
     <t>12.1</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-13-20</t>
   </si>
   <si>
-    <t>23.4</t>
+    <t>23.8</t>
   </si>
   <si>
     <t>2016-06-13-21</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>12.4</t>
   </si>
   <si>
@@ -598,10 +598,10 @@
     <t>2016-06-13-22</t>
   </si>
   <si>
+    <t>22.8</t>
+  </si>
+  <si>
     <t>2016-06-13-23</t>
-  </si>
-  <si>
-    <t>22.8</t>
   </si>
   <si>
     <t>13.4</t>
@@ -617,6 +617,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -646,8 +649,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,11 +1030,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1103,11 +1107,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -1180,11 +1184,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -1257,11 +1261,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -1334,11 +1338,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -1411,11 +1415,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
         <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -1488,11 +1492,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
         <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -1565,7 +1569,7 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B9" t="s">
@@ -1642,7 +1646,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B10" t="s">
@@ -1719,11 +1723,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
         <v>122</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -1762,7 +1766,7 @@
         <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s">
         <v>125</v>
@@ -1796,17 +1800,17 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
         <v>129</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -1873,7 +1877,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B13" t="s">
@@ -1950,7 +1954,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B14" t="s">
@@ -2027,7 +2031,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B15" t="s">
@@ -2070,7 +2074,7 @@
         <v>57</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P15" t="s">
         <v>106</v>
@@ -2104,7 +2108,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B16" t="s">
@@ -2181,7 +2185,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B17" t="s">
@@ -2258,7 +2262,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B18" t="s">
@@ -2301,7 +2305,7 @@
         <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s">
         <v>172</v>
@@ -2335,7 +2339,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B19" t="s">
@@ -2378,7 +2382,7 @@
         <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P19" t="s">
         <v>176</v>
@@ -2412,11 +2416,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
         <v>178</v>
-      </c>
-      <c r="B20" t="s">
-        <v>179</v>
       </c>
       <c r="C20" t="s">
         <v>136</v>
@@ -2489,7 +2493,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B21" t="s">
@@ -2566,11 +2570,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" t="s">
         <v>187</v>
-      </c>
-      <c r="B22" t="s">
-        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>53</v>
@@ -2643,11 +2647,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" t="s">
         <v>189</v>
-      </c>
-      <c r="B23" t="s">
-        <v>190</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
@@ -2720,11 +2724,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
@@ -2763,7 +2767,7 @@
         <v>28</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P24" t="s">
         <v>71</v>
@@ -2775,7 +2779,7 @@
         <v>173</v>
       </c>
       <c r="S24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T24" t="s">
         <v>97</v>
@@ -2797,11 +2801,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
         <v>194</v>
-      </c>
-      <c r="B25" t="s">
-        <v>195</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
